--- a/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
+++ b/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom\Magister_diplom\Times-And-Planes-Optimization-2021-07\Optimization program\Source information\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBC718B-2090-48C7-8A37-CF45402FB2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B243C6E-1F38-4073-88DB-C72BA1E2D36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D6A77B64-8DE9-4FF0-93E1-ACC2210611C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P0</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCB7DB-0111-470F-886C-A97AAB13F801}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="C1">
         <v>100</v>
@@ -465,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -488,7 +491,7 @@
         <v>-200</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -528,7 +531,7 @@
         <v>-100</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -545,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -565,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -585,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -608,7 +611,7 @@
         <v>200</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -625,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -645,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -665,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -688,7 +691,7 @@
         <v>-100</v>
       </c>
       <c r="C13">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -705,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -728,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -745,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>-100</v>
@@ -757,6 +760,26 @@
         <v>500</v>
       </c>
       <c r="F16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>-100</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
         <v>500</v>
       </c>
     </row>

--- a/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
+++ b/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom\Magister_diplom\Times-And-Planes-Optimization-2021-07\Optimization program\Source information\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B243C6E-1F38-4073-88DB-C72BA1E2D36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CDECA0-0F53-4919-8C8A-096C941E4305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D6A77B64-8DE9-4FF0-93E1-ACC2210611C5}"/>
+    <workbookView xWindow="6270" yWindow="675" windowWidth="21150" windowHeight="15600" xr2:uid="{D6A77B64-8DE9-4FF0-93E1-ACC2210611C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>P0</t>
   </si>
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCB7DB-0111-470F-886C-A97AAB13F801}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +462,26 @@
       <c r="F1">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>400</v>
+      </c>
+      <c r="M1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,8 +500,26 @@
       <c r="F2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -502,8 +538,26 @@
       <c r="F3">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -522,8 +576,26 @@
       <c r="F4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,8 +614,26 @@
       <c r="F5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -562,8 +652,26 @@
       <c r="F6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -582,8 +690,26 @@
       <c r="F7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -602,8 +728,26 @@
       <c r="F8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>700</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -622,8 +766,26 @@
       <c r="F9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>800</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -642,8 +804,26 @@
       <c r="F10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>900</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
+      <c r="M10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -662,8 +842,26 @@
       <c r="F11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+      <c r="M11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -682,8 +880,26 @@
       <c r="F12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1100</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+      <c r="M12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -702,8 +918,26 @@
       <c r="F13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>1200</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -722,8 +956,26 @@
       <c r="F14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>1300</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+      <c r="M14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -742,8 +994,26 @@
       <c r="F15">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>1400</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+      <c r="M15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -762,8 +1032,26 @@
       <c r="F16">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>400</v>
+      </c>
+      <c r="M16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -780,6 +1068,24 @@
         <v>500</v>
       </c>
       <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>1600</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>400</v>
+      </c>
+      <c r="M17">
         <v>500</v>
       </c>
     </row>

--- a/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
+++ b/Times-And-Planes-Optimization-2021-07/Optimization program/Source information/Points/For Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom\Magister_diplom\Times-And-Planes-Optimization-2021-07\Optimization program\Source information\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CDECA0-0F53-4919-8C8A-096C941E4305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E4538-AF0A-4F8C-A343-C11530B219D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="675" windowWidth="21150" windowHeight="15600" xr2:uid="{D6A77B64-8DE9-4FF0-93E1-ACC2210611C5}"/>
+    <workbookView xWindow="6270" yWindow="0" windowWidth="21150" windowHeight="15600" xr2:uid="{D6A77B64-8DE9-4FF0-93E1-ACC2210611C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCB7DB-0111-470F-886C-A97AAB13F801}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F1">
         <v>500</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F12">
         <v>500</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15">
         <v>500</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F16">
         <v>500</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
